--- a/Projekthandbuch/Planungsdokumente/Risikomatrix.xlsx
+++ b/Projekthandbuch/Planungsdokumente/Risikomatrix.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i589151/repos/webengineering/Projekthandbuch/Planungsdokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CA21BF9-90DD-FF47-9E06-5EC457FDE243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47509F69-6086-954B-BD2B-C732846057D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17700" xr2:uid="{32794A22-740D-3E48-A911-5997A2E739F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$I$10</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Klasse</t>
   </si>
@@ -66,9 +69,6 @@
   </si>
   <si>
     <t>R3</t>
-  </si>
-  <si>
-    <t>25%%</t>
   </si>
   <si>
     <t>R4</t>
@@ -81,7 +81,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -94,6 +94,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -150,23 +157,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -175,6 +170,22 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,123 +521,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7711516-92E6-B048-A699-0C4E5E5E20F9}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A2:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="211" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="5.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6">
         <v>1000</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
         <v>500</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="6">
         <v>100</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="6"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="7">
         <v>0.05</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="7">
         <v>0.1</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="G8" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H8" s="7">
         <v>0.5</v>
       </c>
-      <c r="I8" t="s">
-        <v>0</v>
+      <c r="I8" s="8" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -646,17 +662,17 @@
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -664,5 +680,6 @@
     <mergeCell ref="D10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="70" scale="81" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Projekthandbuch/Planungsdokumente/Risikomatrix.xlsx
+++ b/Projekthandbuch/Planungsdokumente/Risikomatrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i589151/repos/webengineering/Projekthandbuch/Planungsdokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47509F69-6086-954B-BD2B-C732846057D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03656716-E86B-D64C-8EFD-0AB92307B10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17700" xr2:uid="{32794A22-740D-3E48-A911-5997A2E739F8}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{32794A22-740D-3E48-A911-5997A2E739F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -527,7 +527,7 @@
   <dimension ref="A2:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="211" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I10"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -556,7 +556,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
@@ -590,7 +590,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="3"/>
